--- a/results.xlsx
+++ b/results.xlsx
@@ -125,20 +125,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <fgColor rgb="FF9ACD32"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,8 +165,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="false">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,93 +448,108 @@
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="true" max="1" min="1" style="3" width="20"/>
+    <col customWidth="true" max="4" min="2" style="1" width="20"/>
+    <col customWidth="true" max="5" min="5" style="2" width="20"/>
+    <col customWidth="true" max="8" min="6" style="1" width="20"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
